--- a/data_year/zb/卫生/城市居民主要疾病死亡率及死因构成/城市居民主要疾病粗死亡率.xlsx
+++ b/data_year/zb/卫生/城市居民主要疾病死亡率及死因构成/城市居民主要疾病粗死亡率.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -733,2141 +733,2137 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.41513313754262</v>
+        <v>4.43809134844463</v>
       </c>
       <c r="C2" t="n">
-        <v>2.33485200284723</v>
+        <v>2.02088958470417</v>
       </c>
       <c r="D2" t="n">
-        <v>10.7305478060369</v>
+        <v>9.581073824488159</v>
       </c>
       <c r="E2" t="n">
-        <v>20.3322409543096</v>
+        <v>18.1290132280535</v>
       </c>
       <c r="F2" t="n">
-        <v>65.39771317446289</v>
+        <v>68.3169589847148</v>
       </c>
       <c r="G2" t="n">
-        <v>1.87585301330072</v>
+        <v>2.32190532374318</v>
       </c>
       <c r="H2" t="n">
-        <v>1.53513947764295</v>
+        <v>2.02845279422776</v>
       </c>
       <c r="I2" t="n">
-        <v>2.95488212335332</v>
+        <v>3.04237586151893</v>
       </c>
       <c r="J2" t="n">
-        <v>1.99246453035972</v>
+        <v>1.9153418885271</v>
       </c>
       <c r="K2" t="n">
-        <v>13.7469648080302</v>
+        <v>11.6275417541452</v>
       </c>
       <c r="L2" t="n">
-        <v>22.468549103456</v>
+        <v>19.6861425938163</v>
       </c>
       <c r="M2" t="n">
-        <v>55.8644395803339</v>
+        <v>58.2208506211928</v>
       </c>
       <c r="N2" t="n">
-        <v>0.871378090953665</v>
+        <v>1.13011330078689</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22513158459456</v>
+        <v>1.70286827066799</v>
       </c>
       <c r="P2" t="n">
-        <v>0.197685775858145</v>
+        <v>0.224790929039354</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.525427983201911</v>
+        <v>0.098538489441909</v>
       </c>
       <c r="R2" t="n">
-        <v>124.365162043811</v>
+        <v>123.016066084838</v>
       </c>
       <c r="S2" t="n">
-        <v>129.364531270118</v>
+        <v>122.350931281105</v>
       </c>
       <c r="T2" t="n">
-        <v>25.4962628284413</v>
+        <v>27.3783034258753</v>
       </c>
       <c r="U2" t="n">
-        <v>6.79674910943859</v>
+        <v>6.39576383033889</v>
       </c>
       <c r="V2" t="n">
-        <v>13.7807794802165</v>
+        <v>13.0286359008974</v>
       </c>
       <c r="W2" t="n">
-        <v>6.19848952460473</v>
+        <v>5.33955439663343</v>
       </c>
       <c r="X2" t="n">
-        <v>3.84706924334469</v>
+        <v>2.98078930561774</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.40084172522457</v>
+        <v>2.01695970576407</v>
       </c>
       <c r="Z2" t="n">
-        <v>116.933737548722</v>
+        <v>112.56174822061</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.61530087905142</v>
+        <v>1.52118793075947</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.92106745116706</v>
-      </c>
-      <c r="AC2" t="inlineStr"/>
+        <v>3.2055802346571</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.110422859044464</v>
+      </c>
       <c r="AD2" t="n">
-        <v>0.489856064474007</v>
+        <v>0.12706191999637</v>
       </c>
       <c r="AE2" t="n">
-        <v>128.823144976477</v>
+        <v>129.187181872499</v>
       </c>
       <c r="AF2" t="n">
-        <v>167.573202528136</v>
+        <v>162.867666522966</v>
       </c>
       <c r="AG2" t="n">
-        <v>34.6563522779445</v>
+        <v>38.091348444626</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.33626956401229</v>
+        <v>7.20320075027039</v>
       </c>
       <c r="AI2" t="n">
-        <v>16.5779635047975</v>
+        <v>16.9642789614201</v>
       </c>
       <c r="AJ2" t="n">
-        <v>5.84240768824241</v>
+        <v>5.78566059994862</v>
       </c>
       <c r="AK2" t="n">
-        <v>2.66950742935358</v>
+        <v>2.12279633523295</v>
       </c>
       <c r="AL2" t="n">
-        <v>7.78224975357268</v>
+        <v>7.60520031586258</v>
       </c>
       <c r="AM2" t="n">
-        <v>18.2441764886108</v>
+        <v>16.6255981885471</v>
       </c>
       <c r="AN2" t="n">
-        <v>74.7156993655649</v>
+        <v>78.0647946417528</v>
       </c>
       <c r="AO2" t="n">
-        <v>2.85764414342231</v>
+        <v>3.47258560161356</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.83814654421204</v>
+        <v>2.34280603944477</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.455087457004087</v>
+        <v>0.154601413770467</v>
       </c>
       <c r="AR2" t="n">
-        <v>133.180454456436</v>
+        <v>135.145420468276</v>
       </c>
       <c r="AS2" t="n">
-        <v>204.919017441265</v>
+        <v>201.986747091115</v>
       </c>
       <c r="AT2" t="n">
-        <v>43.6095818435257</v>
+        <v>48.4348390718207</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.86360617046727</v>
+        <v>7.98278453795584</v>
       </c>
       <c r="AV2" t="n">
-        <v>19.3119794603522</v>
+        <v>20.7641591110181</v>
       </c>
       <c r="AW2" t="n">
-        <v>7.57123154725235</v>
+        <v>6.32973865225623</v>
       </c>
       <c r="AX2" t="n">
-        <v>3.35086742084574</v>
+        <v>2.82147580131102</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.28390595411768</v>
+        <v>1.21302647727597</v>
       </c>
       <c r="AZ2" t="n">
-        <v>135.405043980898</v>
+        <v>137.300920948729</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.52289042874552</v>
+        <v>1.48357895137429</v>
       </c>
       <c r="BB2" t="n">
-        <v>5.17375963689004</v>
+        <v>4.99481490643047</v>
       </c>
       <c r="BC2" t="n">
-        <v>6.89269911192953</v>
+        <v>5.84333567792829</v>
       </c>
       <c r="BD2" t="n">
-        <v>3.59613494050865</v>
+        <v>2.89973453134572</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.83599595818604</v>
+        <v>1.60793834471596</v>
       </c>
       <c r="BF2" t="n">
-        <v>126.274864872047</v>
+        <v>125.148427986901</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.56856797548107</v>
+        <v>1.50205341138566</v>
       </c>
       <c r="BH2" t="n">
-        <v>4.06027677587641</v>
+        <v>4.11589862273955</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.43809134844463</v>
+        <v>3.14647641473145</v>
       </c>
       <c r="C3" t="n">
-        <v>2.02088958470417</v>
+        <v>1.78902645697593</v>
       </c>
       <c r="D3" t="n">
-        <v>9.581073824488159</v>
+        <v>9.92625948206927</v>
       </c>
       <c r="E3" t="n">
-        <v>18.1290132280535</v>
+        <v>18.6414167466031</v>
       </c>
       <c r="F3" t="n">
-        <v>68.3169589847148</v>
+        <v>65.4667202398728</v>
       </c>
       <c r="G3" t="n">
-        <v>2.32190532374318</v>
+        <v>2.14145570893446</v>
       </c>
       <c r="H3" t="n">
-        <v>2.02845279422776</v>
+        <v>1.88758717998128</v>
       </c>
       <c r="I3" t="n">
-        <v>3.04237586151893</v>
+        <v>2.05730091423108</v>
       </c>
       <c r="J3" t="n">
-        <v>1.9153418885271</v>
+        <v>1.64223143153534</v>
       </c>
       <c r="K3" t="n">
-        <v>11.6275417541452</v>
+        <v>11.9828755004337</v>
       </c>
       <c r="L3" t="n">
-        <v>19.6861425938163</v>
+        <v>20.1459086601166</v>
       </c>
       <c r="M3" t="n">
-        <v>58.2208506211928</v>
+        <v>56.1877754075304</v>
       </c>
       <c r="N3" t="n">
-        <v>1.13011330078689</v>
+        <v>0.830138965391489</v>
       </c>
       <c r="O3" t="n">
-        <v>1.70286827066799</v>
+        <v>1.57906868416859</v>
       </c>
       <c r="P3" t="n">
-        <v>0.224790929039354</v>
+        <v>0.135348744357308</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.098538489441909</v>
+        <v>0.216557990971693</v>
       </c>
       <c r="R3" t="n">
-        <v>123.016066084838</v>
+        <v>127.293990193111</v>
       </c>
       <c r="S3" t="n">
-        <v>122.350931281105</v>
+        <v>128.861027877781</v>
       </c>
       <c r="T3" t="n">
-        <v>27.3783034258753</v>
+        <v>24.3146499863217</v>
       </c>
       <c r="U3" t="n">
-        <v>6.39576383033889</v>
+        <v>6.21401124093774</v>
       </c>
       <c r="V3" t="n">
-        <v>13.0286359008974</v>
+        <v>12.921293461311</v>
       </c>
       <c r="W3" t="n">
-        <v>5.33955439663343</v>
+        <v>7.2516849476771</v>
       </c>
       <c r="X3" t="n">
-        <v>2.98078930561774</v>
+        <v>2.63478889015559</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.01695970576407</v>
+        <v>1.91894441999917</v>
       </c>
       <c r="Z3" t="n">
-        <v>112.56174822061</v>
+        <v>114.850928961862</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.52118793075947</v>
+        <v>1.41665019093982</v>
       </c>
       <c r="AB3" t="n">
-        <v>3.2055802346571</v>
+        <v>2.06030866410569</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.110422859044464</v>
+        <v>0.067200492958194</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.12706191999637</v>
+        <v>0.226988331769901</v>
       </c>
       <c r="AE3" t="n">
-        <v>129.187181872499</v>
+        <v>132.038515252836</v>
       </c>
       <c r="AF3" t="n">
-        <v>162.867666522966</v>
+        <v>172.327450797705</v>
       </c>
       <c r="AG3" t="n">
-        <v>38.091348444626</v>
+        <v>33.9347555996001</v>
       </c>
       <c r="AH3" t="n">
-        <v>7.20320075027039</v>
+        <v>6.60058175278263</v>
       </c>
       <c r="AI3" t="n">
-        <v>16.9642789614201</v>
+        <v>16.3506266088726</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5.78566059994862</v>
+        <v>4.22050442057057</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.12279633523295</v>
+        <v>1.93377995939003</v>
       </c>
       <c r="AL3" t="n">
-        <v>7.60520031586258</v>
+        <v>7.89824544763136</v>
       </c>
       <c r="AM3" t="n">
-        <v>16.6255981885471</v>
+        <v>17.1578482593118</v>
       </c>
       <c r="AN3" t="n">
-        <v>78.0647946417528</v>
+        <v>74.6166199667704</v>
       </c>
       <c r="AO3" t="n">
-        <v>3.47258560161356</v>
+        <v>3.43453557204548</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.34280603944477</v>
+        <v>2.19181501532091</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.154601413770467</v>
+        <v>0.237273614649083</v>
       </c>
       <c r="AR3" t="n">
-        <v>135.145420468276</v>
+        <v>136.717056760802</v>
       </c>
       <c r="AS3" t="n">
-        <v>201.986747091115</v>
+        <v>215.18937296562</v>
       </c>
       <c r="AT3" t="n">
-        <v>48.4348390718207</v>
+        <v>43.4210714807822</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.98278453795584</v>
+        <v>6.98177611104927</v>
       </c>
       <c r="AV3" t="n">
-        <v>20.7641591110181</v>
+        <v>19.7322669782544</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.32973865225623</v>
+        <v>8.007984494406561</v>
       </c>
       <c r="AX3" t="n">
-        <v>2.82147580131102</v>
+        <v>2.31045182264545</v>
       </c>
       <c r="AY3" t="n">
-        <v>1.21302647727597</v>
+        <v>1.10035638793512</v>
       </c>
       <c r="AZ3" t="n">
-        <v>137.300920948729</v>
+        <v>135.735337180191</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.48357895137429</v>
+        <v>1.45626680990875</v>
       </c>
       <c r="BB3" t="n">
-        <v>4.99481490643047</v>
+        <v>3.55317237937002</v>
       </c>
       <c r="BC3" t="n">
-        <v>5.84333567792829</v>
+        <v>7.63248265576291</v>
       </c>
       <c r="BD3" t="n">
-        <v>2.89973453134572</v>
+        <v>2.47148479657359</v>
       </c>
       <c r="BE3" t="n">
-        <v>1.60793834471596</v>
+        <v>1.50678438655151</v>
       </c>
       <c r="BF3" t="n">
-        <v>125.148427986901</v>
+        <v>125.366252974231</v>
       </c>
       <c r="BG3" t="n">
-        <v>1.50205341138566</v>
+        <v>1.4365972050174</v>
       </c>
       <c r="BH3" t="n">
-        <v>4.11589862273955</v>
+        <v>2.81196729422844</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.14647641473145</v>
+        <v>4.16771765676566</v>
       </c>
       <c r="C4" t="n">
-        <v>1.78902645697593</v>
+        <v>1.8090211119687</v>
       </c>
       <c r="D4" t="n">
-        <v>9.92625948206927</v>
+        <v>23.815669690557</v>
       </c>
       <c r="E4" t="n">
-        <v>18.6414167466031</v>
+        <v>17.3167392606358</v>
       </c>
       <c r="F4" t="n">
-        <v>65.4667202398728</v>
+        <v>75.5921507731599</v>
       </c>
       <c r="G4" t="n">
-        <v>2.14145570893446</v>
+        <v>1.90128805962202</v>
       </c>
       <c r="H4" t="n">
-        <v>1.88758717998128</v>
+        <v>1.85908083888699</v>
       </c>
       <c r="I4" t="n">
-        <v>2.05730091423108</v>
+        <v>2.65041000205441</v>
       </c>
       <c r="J4" t="n">
-        <v>1.64223143153534</v>
+        <v>1.54706293841891</v>
       </c>
       <c r="K4" t="n">
-        <v>11.9828755004337</v>
+        <v>23.7823785386138</v>
       </c>
       <c r="L4" t="n">
-        <v>20.1459086601166</v>
+        <v>18.6935120996917</v>
       </c>
       <c r="M4" t="n">
-        <v>56.1877754075304</v>
+        <v>63.4137334796472</v>
       </c>
       <c r="N4" t="n">
-        <v>0.830138965391489</v>
+        <v>0.822062893013888</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57906868416859</v>
+        <v>1.481694081866</v>
       </c>
       <c r="P4" t="n">
-        <v>0.135348744357308</v>
+        <v>0.160450829720783</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.216557990971693</v>
+        <v>0.136680336428815</v>
       </c>
       <c r="R4" t="n">
-        <v>127.293990193111</v>
+        <v>126.803696466002</v>
       </c>
       <c r="S4" t="n">
-        <v>128.861027877781</v>
+        <v>120.124187850959</v>
       </c>
       <c r="T4" t="n">
-        <v>24.3146499863217</v>
+        <v>23.7189905565019</v>
       </c>
       <c r="U4" t="n">
-        <v>6.21401124093774</v>
+        <v>5.57814242584845</v>
       </c>
       <c r="V4" t="n">
-        <v>12.921293461311</v>
+        <v>11.6495225875052</v>
       </c>
       <c r="W4" t="n">
-        <v>7.2516849476771</v>
+        <v>6.4299184354773</v>
       </c>
       <c r="X4" t="n">
-        <v>2.63478889015559</v>
+        <v>1.97097006879233</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.91894441999917</v>
+        <v>1.79071049466158</v>
       </c>
       <c r="Z4" t="n">
-        <v>114.850928961862</v>
+        <v>109.79788939004</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.41665019093982</v>
+        <v>1.26974051667928</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.06030866410569</v>
+        <v>1.68176240040672</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.067200492958194</v>
+        <v>0.085396004742961</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.226988331769901</v>
+        <v>0.139381984752879</v>
       </c>
       <c r="AE4" t="n">
-        <v>132.038515252836</v>
+        <v>131.635487403092</v>
       </c>
       <c r="AF4" t="n">
-        <v>172.327450797705</v>
+        <v>164.511967665859</v>
       </c>
       <c r="AG4" t="n">
-        <v>33.9347555996001</v>
+        <v>34.7866023918453</v>
       </c>
       <c r="AH4" t="n">
-        <v>6.60058175278263</v>
+        <v>6.30261777533968</v>
       </c>
       <c r="AI4" t="n">
-        <v>16.3506266088726</v>
+        <v>15.2476038813466</v>
       </c>
       <c r="AJ4" t="n">
-        <v>4.22050442057057</v>
+        <v>5.65942378004071</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.93377995939003</v>
+        <v>2.06632687458312</v>
       </c>
       <c r="AL4" t="n">
-        <v>7.89824544763136</v>
+        <v>23.8483695873497</v>
       </c>
       <c r="AM4" t="n">
-        <v>17.1578482593118</v>
+        <v>15.9644180847029</v>
       </c>
       <c r="AN4" t="n">
-        <v>74.6166199667704</v>
+        <v>87.55427780542929</v>
       </c>
       <c r="AO4" t="n">
-        <v>3.43453557204548</v>
+        <v>2.96</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.19181501532091</v>
+        <v>2.22976515844845</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.237273614649083</v>
+        <v>0.142035651454395</v>
       </c>
       <c r="AR4" t="n">
-        <v>136.717056760802</v>
+        <v>136.381465110197</v>
       </c>
       <c r="AS4" t="n">
-        <v>215.18937296562</v>
+        <v>208.111414788522</v>
       </c>
       <c r="AT4" t="n">
-        <v>43.4210714807822</v>
+        <v>45.6576520140937</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.98177611104927</v>
+        <v>7.01422634922049</v>
       </c>
       <c r="AV4" t="n">
-        <v>19.7322669782544</v>
+        <v>18.7817827875244</v>
       </c>
       <c r="AW4" t="n">
-        <v>8.007984494406561</v>
+        <v>7.27884071357388</v>
       </c>
       <c r="AX4" t="n">
-        <v>2.31045182264545</v>
+        <v>2.03519577289449</v>
       </c>
       <c r="AY4" t="n">
-        <v>1.10035638793512</v>
+        <v>1.03316343729156</v>
       </c>
       <c r="AZ4" t="n">
-        <v>135.735337180191</v>
+        <v>130.67863641961</v>
       </c>
       <c r="BA4" t="n">
-        <v>1.45626680990875</v>
+        <v>1.34447445417791</v>
       </c>
       <c r="BB4" t="n">
-        <v>3.55317237937002</v>
+        <v>3.44971520587182</v>
       </c>
       <c r="BC4" t="n">
-        <v>7.63248265576291</v>
+        <v>6.85818258780538</v>
       </c>
       <c r="BD4" t="n">
-        <v>2.47148479657359</v>
+        <v>2.00337064000441</v>
       </c>
       <c r="BE4" t="n">
-        <v>1.50678438655151</v>
+        <v>1.4085432966224</v>
       </c>
       <c r="BF4" t="n">
-        <v>125.366252974231</v>
+        <v>120.331804752288</v>
       </c>
       <c r="BG4" t="n">
-        <v>1.4365972050174</v>
+        <v>1.30744227951292</v>
       </c>
       <c r="BH4" t="n">
-        <v>2.81196729422844</v>
+        <v>2.57365890156372</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.16771765676566</v>
+        <v>6.930293002</v>
       </c>
       <c r="C5" t="n">
-        <v>1.8090211119687</v>
+        <v>1.977238767</v>
       </c>
       <c r="D5" t="n">
-        <v>23.815669690557</v>
+        <v>8.711230366000001</v>
       </c>
       <c r="E5" t="n">
-        <v>17.3167392606358</v>
+        <v>17.12089626</v>
       </c>
       <c r="F5" t="n">
-        <v>75.5921507731599</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.90128805962202</v>
-      </c>
+        <v>76.61444604</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>1.85908083888699</v>
+        <v>2.017068037</v>
       </c>
       <c r="I5" t="n">
-        <v>2.65041000205441</v>
+        <v>4.256778444</v>
       </c>
       <c r="J5" t="n">
-        <v>1.54706293841891</v>
+        <v>1.781102964</v>
       </c>
       <c r="K5" t="n">
-        <v>23.7823785386138</v>
+        <v>10.38976729</v>
       </c>
       <c r="L5" t="n">
-        <v>18.6935120996917</v>
+        <v>18.34708976</v>
       </c>
       <c r="M5" t="n">
-        <v>63.4137334796472</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.822062893013888</v>
-      </c>
+        <v>64.47131604</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>1.481694081866</v>
+        <v>1.553421518</v>
       </c>
       <c r="P5" t="n">
-        <v>0.160450829720783</v>
+        <v>0.213271229</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.136680336428815</v>
+        <v>0.040348611</v>
       </c>
       <c r="R5" t="n">
-        <v>126.803696466002</v>
+        <v>128.5045615</v>
       </c>
       <c r="S5" t="n">
-        <v>120.124187850959</v>
+        <v>116.2731683</v>
       </c>
       <c r="T5" t="n">
-        <v>23.7189905565019</v>
+        <v>25.83463912</v>
       </c>
       <c r="U5" t="n">
-        <v>5.57814242584845</v>
+        <v>5.766969307</v>
       </c>
       <c r="V5" t="n">
-        <v>11.6495225875052</v>
+        <v>11.90572224</v>
       </c>
       <c r="W5" t="n">
-        <v>6.4299184354773</v>
+        <v>6.536474957</v>
       </c>
       <c r="X5" t="n">
-        <v>1.97097006879233</v>
+        <v>2.876279545</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.79071049466158</v>
+        <v>2.22205564</v>
       </c>
       <c r="Z5" t="n">
-        <v>109.79788939004</v>
+        <v>111.6474883</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.26974051667928</v>
+        <v>1.256571023</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.68176240040672</v>
+        <v>2.003020324</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.085396004742961</v>
+        <v>0.105263071</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.139381984752879</v>
+        <v>0.038406796</v>
       </c>
       <c r="AE5" t="n">
-        <v>131.635487403092</v>
+        <v>133.8391499</v>
       </c>
       <c r="AF5" t="n">
-        <v>164.511967665859</v>
+        <v>157.7722738</v>
       </c>
       <c r="AG5" t="n">
-        <v>34.7866023918453</v>
+        <v>39.00708019</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.30261777533968</v>
+        <v>6.442384443</v>
       </c>
       <c r="AI5" t="n">
-        <v>15.2476038813466</v>
+        <v>15.77665839</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5.65942378004071</v>
+        <v>9.535858719</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.06632687458312</v>
+        <v>2.16838967</v>
       </c>
       <c r="AL5" t="n">
-        <v>23.8483695873497</v>
+        <v>7.075354378</v>
       </c>
       <c r="AM5" t="n">
-        <v>15.9644180847029</v>
+        <v>15.92586714</v>
       </c>
       <c r="AN5" t="n">
-        <v>87.55427780542929</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>2.96</v>
-      </c>
+        <v>88.44895171</v>
+      </c>
+      <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="n">
-        <v>2.22976515844845</v>
+        <v>2.468930726</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.142035651454395</v>
+        <v>0.036514334</v>
       </c>
       <c r="AR5" t="n">
-        <v>136.381465110197</v>
+        <v>139.0381568</v>
       </c>
       <c r="AS5" t="n">
-        <v>208.111414788522</v>
+        <v>198.2166568</v>
       </c>
       <c r="AT5" t="n">
-        <v>45.6576520140937</v>
+        <v>51.84473645</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.01422634922049</v>
+        <v>7.100633532</v>
       </c>
       <c r="AV5" t="n">
-        <v>18.7817827875244</v>
+        <v>19.54921257</v>
       </c>
       <c r="AW5" t="n">
-        <v>7.27884071357388</v>
+        <v>7.15680943</v>
       </c>
       <c r="AX5" t="n">
-        <v>2.03519577289449</v>
+        <v>2.850926834</v>
       </c>
       <c r="AY5" t="n">
-        <v>1.03316343729156</v>
+        <v>1.202164221</v>
       </c>
       <c r="AZ5" t="n">
-        <v>130.67863641961</v>
+        <v>139.1168031</v>
       </c>
       <c r="BA5" t="n">
-        <v>1.34447445417791</v>
+        <v>1.286428069</v>
       </c>
       <c r="BB5" t="n">
-        <v>3.44971520587182</v>
+        <v>3.643006998</v>
       </c>
       <c r="BC5" t="n">
-        <v>6.85818258780538</v>
+        <v>6.850634462</v>
       </c>
       <c r="BD5" t="n">
-        <v>2.00337064000441</v>
+        <v>2.863440027</v>
       </c>
       <c r="BE5" t="n">
-        <v>1.4085432966224</v>
+        <v>1.705546246</v>
       </c>
       <c r="BF5" t="n">
-        <v>120.331804752288</v>
+        <v>125.5589291</v>
       </c>
       <c r="BG5" t="n">
-        <v>1.30744227951292</v>
+        <v>1.271691696</v>
       </c>
       <c r="BH5" t="n">
-        <v>2.57365890156372</v>
+        <v>2.833568075</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.930293002</v>
+        <v>6.6400334136</v>
       </c>
       <c r="C6" t="n">
-        <v>1.977238767</v>
+        <v>1.8329258902</v>
       </c>
       <c r="D6" t="n">
-        <v>8.711230366000001</v>
+        <v>7.0846785083</v>
       </c>
       <c r="E6" t="n">
-        <v>17.12089626</v>
+        <v>17.6412941307</v>
       </c>
       <c r="F6" t="n">
-        <v>76.61444604</v>
+        <v>74.16927203989999</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>2.017068037</v>
+        <v>2.1132993249</v>
       </c>
       <c r="I6" t="n">
-        <v>4.256778444</v>
+        <v>4.0538658427</v>
       </c>
       <c r="J6" t="n">
-        <v>1.781102964</v>
+        <v>1.577897039</v>
       </c>
       <c r="K6" t="n">
-        <v>10.38976729</v>
+        <v>8.5718190499</v>
       </c>
       <c r="L6" t="n">
-        <v>18.34708976</v>
+        <v>18.751638103</v>
       </c>
       <c r="M6" t="n">
-        <v>64.47131604</v>
+        <v>62.7722060536</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>1.553421518</v>
+        <v>1.685765994</v>
       </c>
       <c r="P6" t="n">
-        <v>0.213271229</v>
+        <v>0.1756006244</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.040348611</v>
+        <v>0.0326115445</v>
       </c>
       <c r="R6" t="n">
-        <v>128.5045615</v>
+        <v>131.8459659419</v>
       </c>
       <c r="S6" t="n">
-        <v>116.2731683</v>
+        <v>117.8832077237</v>
       </c>
       <c r="T6" t="n">
-        <v>25.83463912</v>
+        <v>25.098346384</v>
       </c>
       <c r="U6" t="n">
-        <v>5.766969307</v>
+        <v>5.8299407293</v>
       </c>
       <c r="V6" t="n">
-        <v>11.90572224</v>
+        <v>11.1330795854</v>
       </c>
       <c r="W6" t="n">
-        <v>6.536474957</v>
+        <v>6.6878752084</v>
       </c>
       <c r="X6" t="n">
-        <v>2.876279545</v>
+        <v>2.6390265263</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.22205564</v>
+        <v>2.0796131087</v>
       </c>
       <c r="Z6" t="n">
-        <v>111.6474883</v>
+        <v>111.5289737016</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.256571023</v>
+        <v>1.1589641209</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.003020324</v>
+        <v>1.8137035918</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.105263071</v>
+        <v>0.0864587684</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.038406796</v>
+        <v>0.0395240084</v>
       </c>
       <c r="AE6" t="n">
-        <v>133.8391499</v>
+        <v>136.2059086219</v>
       </c>
       <c r="AF6" t="n">
-        <v>157.7722738</v>
+        <v>161.2789514597</v>
       </c>
       <c r="AG6" t="n">
-        <v>39.00708019</v>
+        <v>37.7688954156</v>
       </c>
       <c r="AH6" t="n">
-        <v>6.442384443</v>
+        <v>6.6474441652</v>
       </c>
       <c r="AI6" t="n">
-        <v>15.77665839</v>
+        <v>14.5324838438</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.535858719</v>
+        <v>9.148359728300001</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.16838967</v>
+        <v>2.0802786084</v>
       </c>
       <c r="AL6" t="n">
-        <v>7.075354378</v>
+        <v>5.6422995239</v>
       </c>
       <c r="AM6" t="n">
-        <v>15.92586714</v>
+        <v>16.5643704868</v>
       </c>
       <c r="AN6" t="n">
-        <v>88.44895171</v>
+        <v>85.22329686250001</v>
       </c>
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="n">
-        <v>2.468930726</v>
+        <v>2.5279642973</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.036514334</v>
+        <v>0.0462284135</v>
       </c>
       <c r="AR6" t="n">
-        <v>139.0381568</v>
+        <v>140.4346210526</v>
       </c>
       <c r="AS6" t="n">
-        <v>198.2166568</v>
+        <v>203.3685233749</v>
       </c>
       <c r="AT6" t="n">
-        <v>51.84473645</v>
+        <v>50.0580726197</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.100633532</v>
+        <v>7.4403415024</v>
       </c>
       <c r="AV6" t="n">
-        <v>19.54921257</v>
+        <v>17.8295691726</v>
       </c>
       <c r="AW6" t="n">
-        <v>7.15680943</v>
+        <v>7.1264749054</v>
       </c>
       <c r="AX6" t="n">
-        <v>2.850926834</v>
+        <v>2.6763818354</v>
       </c>
       <c r="AY6" t="n">
-        <v>1.202164221</v>
+        <v>1.2554663882</v>
       </c>
       <c r="AZ6" t="n">
-        <v>139.1168031</v>
+        <v>139.6000765348</v>
       </c>
       <c r="BA6" t="n">
-        <v>1.286428069</v>
+        <v>1.3284586201</v>
       </c>
       <c r="BB6" t="n">
-        <v>3.643006998</v>
+        <v>3.0316106972</v>
       </c>
       <c r="BC6" t="n">
-        <v>6.850634462</v>
+        <v>6.9105258462</v>
       </c>
       <c r="BD6" t="n">
-        <v>2.863440027</v>
+        <v>2.6579895659</v>
       </c>
       <c r="BE6" t="n">
-        <v>1.705546246</v>
+        <v>1.6612434787</v>
       </c>
       <c r="BF6" t="n">
-        <v>125.5589291</v>
+        <v>125.7789811521</v>
       </c>
       <c r="BG6" t="n">
-        <v>1.271691696</v>
+        <v>1.245006265</v>
       </c>
       <c r="BH6" t="n">
-        <v>2.833568075</v>
+        <v>2.4319616427</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.6400334136</v>
+        <v>6.7755330882</v>
       </c>
       <c r="C7" t="n">
-        <v>1.8329258902</v>
+        <v>1.7315653167</v>
       </c>
       <c r="D7" t="n">
-        <v>7.0846785083</v>
+        <v>6.1472980394</v>
       </c>
       <c r="E7" t="n">
-        <v>17.6412941307</v>
+        <v>19.2461796798</v>
       </c>
       <c r="F7" t="n">
-        <v>74.16927203989999</v>
+        <v>73.360007478</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>2.1132993249</v>
+        <v>1.7002138556</v>
       </c>
       <c r="I7" t="n">
-        <v>4.0538658427</v>
+        <v>4.182731447</v>
       </c>
       <c r="J7" t="n">
-        <v>1.577897039</v>
+        <v>1.528305721</v>
       </c>
       <c r="K7" t="n">
-        <v>8.5718190499</v>
+        <v>7.4050921538</v>
       </c>
       <c r="L7" t="n">
-        <v>18.751638103</v>
+        <v>20.0410361055</v>
       </c>
       <c r="M7" t="n">
-        <v>62.7722060536</v>
+        <v>61.4929772402</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>1.685765994</v>
+        <v>1.3674314346</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1756006244</v>
+        <v>0.1486868405</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0326115445</v>
+        <v>0.0170624243</v>
       </c>
       <c r="R7" t="n">
-        <v>131.8459659419</v>
+        <v>132.1094765119</v>
       </c>
       <c r="S7" t="n">
-        <v>117.8832077237</v>
+        <v>120.5606527382</v>
       </c>
       <c r="T7" t="n">
-        <v>25.098346384</v>
+        <v>26.0128846166</v>
       </c>
       <c r="U7" t="n">
-        <v>5.8299407293</v>
+        <v>5.5379754356</v>
       </c>
       <c r="V7" t="n">
-        <v>11.1330795854</v>
+        <v>10.8443893984</v>
       </c>
       <c r="W7" t="n">
-        <v>6.6878752084</v>
+        <v>6.6421580379</v>
       </c>
       <c r="X7" t="n">
-        <v>2.6390265263</v>
+        <v>2.8591748178</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.0796131087</v>
+        <v>2.227865118</v>
       </c>
       <c r="Z7" t="n">
-        <v>111.5289737016</v>
+        <v>114.6375540108</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.1589641209</v>
+        <v>1.23093204</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.8137035918</v>
+        <v>1.5161182751</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0864587684</v>
+        <v>0.07355535119999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.0395240084</v>
+        <v>0.0434097155</v>
       </c>
       <c r="AE7" t="n">
-        <v>136.2059086219</v>
+        <v>136.6067570791</v>
       </c>
       <c r="AF7" t="n">
-        <v>161.2789514597</v>
+        <v>164.3479769095</v>
       </c>
       <c r="AG7" t="n">
-        <v>37.7688954156</v>
+        <v>37.6338116537</v>
       </c>
       <c r="AH7" t="n">
-        <v>6.6474441652</v>
+        <v>6.5198980971</v>
       </c>
       <c r="AI7" t="n">
-        <v>14.5324838438</v>
+        <v>14.2661206561</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.148359728300001</v>
+        <v>9.313941911500001</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.0802786084</v>
+        <v>1.9305608523</v>
       </c>
       <c r="AL7" t="n">
-        <v>5.6422995239</v>
+        <v>4.9158904273</v>
       </c>
       <c r="AM7" t="n">
-        <v>16.5643704868</v>
+        <v>18.4679980664</v>
       </c>
       <c r="AN7" t="n">
-        <v>85.22329686250001</v>
+        <v>84.9780864639</v>
       </c>
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="n">
-        <v>2.5279642973</v>
+        <v>2.0260150353</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.0462284135</v>
+        <v>0.06920428269999999</v>
       </c>
       <c r="AR7" t="n">
-        <v>140.4346210526</v>
+        <v>141.0096919166</v>
       </c>
       <c r="AS7" t="n">
-        <v>203.3685233749</v>
+        <v>207.2167132829</v>
       </c>
       <c r="AT7" t="n">
-        <v>50.0580726197</v>
+        <v>49.0109502891</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.4403415024</v>
+        <v>7.4812215969</v>
       </c>
       <c r="AV7" t="n">
-        <v>17.8295691726</v>
+        <v>17.6160694826</v>
       </c>
       <c r="AW7" t="n">
-        <v>7.1264749054</v>
+        <v>7.1566773745</v>
       </c>
       <c r="AX7" t="n">
-        <v>2.6763818354</v>
+        <v>2.7252169262</v>
       </c>
       <c r="AY7" t="n">
-        <v>1.2554663882</v>
+        <v>1.3673811722</v>
       </c>
       <c r="AZ7" t="n">
-        <v>139.6000765348</v>
+        <v>141.5442353417</v>
       </c>
       <c r="BA7" t="n">
-        <v>1.3284586201</v>
+        <v>1.2122681248</v>
       </c>
       <c r="BB7" t="n">
-        <v>3.0316106972</v>
+        <v>2.9972613479</v>
       </c>
       <c r="BC7" t="n">
-        <v>6.9105258462</v>
+        <v>6.9021447583</v>
       </c>
       <c r="BD7" t="n">
-        <v>2.6579895659</v>
+        <v>2.7914858692</v>
       </c>
       <c r="BE7" t="n">
-        <v>1.6612434787</v>
+        <v>1.7930624136</v>
       </c>
       <c r="BF7" t="n">
-        <v>125.7789811521</v>
+        <v>128.2335052969</v>
       </c>
       <c r="BG7" t="n">
-        <v>1.245006265</v>
+        <v>1.2215011601</v>
       </c>
       <c r="BH7" t="n">
-        <v>2.4319616427</v>
+        <v>2.2645401565</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6.7755330882</v>
-      </c>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>1.7315653167</v>
+        <v>1.5542127785</v>
       </c>
       <c r="D8" t="n">
-        <v>6.1472980394</v>
+        <v>6.0552129851</v>
       </c>
       <c r="E8" t="n">
-        <v>19.2461796798</v>
+        <v>20.4308334339</v>
       </c>
       <c r="F8" t="n">
-        <v>73.360007478</v>
+        <v>69.0341754435</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>1.7002138556</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.182731447</v>
-      </c>
+        <v>1.8718373536</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>1.528305721</v>
+        <v>1.3660451956</v>
       </c>
       <c r="K8" t="n">
-        <v>7.4050921538</v>
+        <v>7.112144701</v>
       </c>
       <c r="L8" t="n">
-        <v>20.0410361055</v>
+        <v>21.4716634094</v>
       </c>
       <c r="M8" t="n">
-        <v>61.4929772402</v>
+        <v>58.1188054091</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>1.3674314346</v>
+        <v>1.4943984354</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1486868405</v>
+        <v>0.1879458155</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0170624243</v>
+        <v>0.0550085314</v>
       </c>
       <c r="R8" t="n">
-        <v>132.1094765119</v>
+        <v>134.9978120357</v>
       </c>
       <c r="S8" t="n">
-        <v>120.5606527382</v>
+        <v>118.0460162867</v>
       </c>
       <c r="T8" t="n">
-        <v>26.0128846166</v>
+        <v>26.2528215939</v>
       </c>
       <c r="U8" t="n">
-        <v>5.5379754356</v>
+        <v>5.6933829963</v>
       </c>
       <c r="V8" t="n">
-        <v>10.8443893984</v>
+        <v>10.6189385755</v>
       </c>
       <c r="W8" t="n">
-        <v>6.6421580379</v>
+        <v>7.373435225</v>
       </c>
       <c r="X8" t="n">
-        <v>2.8591748178</v>
+        <v>2.828355321</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.227865118</v>
+        <v>2.7320903911</v>
       </c>
       <c r="Z8" t="n">
-        <v>114.6375540108</v>
+        <v>112.9508510691</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.23093204</v>
+        <v>1.3316648635</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.5161182751</v>
+        <v>1.4256377712</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.07355535119999999</v>
+        <v>0.0926875984</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.0434097155</v>
+        <v>0.0542561552</v>
       </c>
       <c r="AE8" t="n">
-        <v>136.6067570791</v>
+        <v>138.6990786909</v>
       </c>
       <c r="AF8" t="n">
-        <v>164.3479769095</v>
+        <v>160.072612821</v>
       </c>
       <c r="AG8" t="n">
-        <v>37.6338116537</v>
+        <v>37.338407791</v>
       </c>
       <c r="AH8" t="n">
-        <v>6.5198980971</v>
+        <v>6.5774284787</v>
       </c>
       <c r="AI8" t="n">
-        <v>14.2661206561</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>9.313941911500001</v>
-      </c>
+        <v>14.046692508</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="n">
-        <v>1.9305608523</v>
+        <v>1.7373025098</v>
       </c>
       <c r="AL8" t="n">
-        <v>4.9158904273</v>
+        <v>5.0268034109</v>
       </c>
       <c r="AM8" t="n">
-        <v>18.4679980664</v>
+        <v>19.4180910819</v>
       </c>
       <c r="AN8" t="n">
-        <v>84.9780864639</v>
+        <v>79.6549855486</v>
       </c>
       <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="n">
-        <v>2.0260150353</v>
+        <v>2.2390907828</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.06920428269999999</v>
+        <v>0.0535240825</v>
       </c>
       <c r="AR8" t="n">
-        <v>141.0096919166</v>
+        <v>142.300463726</v>
       </c>
       <c r="AS8" t="n">
-        <v>207.2167132829</v>
+        <v>200.9650882705</v>
       </c>
       <c r="AT8" t="n">
-        <v>49.0109502891</v>
+        <v>48.1248406404</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.4812215969</v>
+        <v>7.4376172916</v>
       </c>
       <c r="AV8" t="n">
-        <v>17.6160694826</v>
+        <v>17.3819457784</v>
       </c>
       <c r="AW8" t="n">
-        <v>7.1566773745</v>
+        <v>7.6271817503</v>
       </c>
       <c r="AX8" t="n">
-        <v>2.7252169262</v>
+        <v>2.6048386796</v>
       </c>
       <c r="AY8" t="n">
-        <v>1.3673811722</v>
+        <v>1.7774455716</v>
       </c>
       <c r="AZ8" t="n">
-        <v>141.5442353417</v>
+        <v>139.5016002474</v>
       </c>
       <c r="BA8" t="n">
-        <v>1.2122681248</v>
+        <v>1.4027769944</v>
       </c>
       <c r="BB8" t="n">
-        <v>2.9972613479</v>
+        <v>2.9215228342</v>
       </c>
       <c r="BC8" t="n">
-        <v>6.9021447583</v>
+        <v>7.5020437898</v>
       </c>
       <c r="BD8" t="n">
-        <v>2.7914858692</v>
+        <v>2.715068432</v>
       </c>
       <c r="BE8" t="n">
-        <v>1.7930624136</v>
+        <v>2.2482394302</v>
       </c>
       <c r="BF8" t="n">
-        <v>128.2335052969</v>
+        <v>126.4077988702</v>
       </c>
       <c r="BG8" t="n">
-        <v>1.2215011601</v>
+        <v>1.3677072451</v>
       </c>
       <c r="BH8" t="n">
-        <v>2.2645401565</v>
+        <v>2.1838102459</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.1610756015</v>
+      </c>
       <c r="C9" t="n">
-        <v>1.5542127785</v>
+        <v>1.4507564625</v>
       </c>
       <c r="D9" t="n">
-        <v>6.0552129851</v>
+        <v>5.9984249522</v>
       </c>
       <c r="E9" t="n">
-        <v>20.4308334339</v>
+        <v>20.5223638039</v>
       </c>
       <c r="F9" t="n">
-        <v>69.0341754435</v>
+        <v>67.204191767</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>1.8718373536</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1.5948496552</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.5396718979</v>
+      </c>
       <c r="J9" t="n">
-        <v>1.3660451956</v>
+        <v>1.3564678782</v>
       </c>
       <c r="K9" t="n">
-        <v>7.112144701</v>
+        <v>7.1901663349</v>
       </c>
       <c r="L9" t="n">
-        <v>21.4716634094</v>
+        <v>21.4641093671</v>
       </c>
       <c r="M9" t="n">
-        <v>58.1188054091</v>
+        <v>55.3048798976</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>1.4943984354</v>
+        <v>1.2545111423</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1879458155</v>
+        <v>0.161800907</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0550085314</v>
+        <v>0.0177316063</v>
       </c>
       <c r="R9" t="n">
-        <v>134.9978120357</v>
+        <v>138.3153945628</v>
       </c>
       <c r="S9" t="n">
-        <v>118.0460162867</v>
+        <v>118.6798570903</v>
       </c>
       <c r="T9" t="n">
-        <v>26.2528215939</v>
+        <v>25.8681970698</v>
       </c>
       <c r="U9" t="n">
-        <v>5.6933829963</v>
+        <v>5.6962785082</v>
       </c>
       <c r="V9" t="n">
-        <v>10.6189385755</v>
+        <v>10.9226694508</v>
       </c>
       <c r="W9" t="n">
-        <v>7.373435225</v>
+        <v>7.6667032529</v>
       </c>
       <c r="X9" t="n">
-        <v>2.828355321</v>
+        <v>2.8348405494</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.7320903911</v>
+        <v>2.8725202127</v>
       </c>
       <c r="Z9" t="n">
-        <v>112.9508510691</v>
+        <v>113.6751112259</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.3316648635</v>
+        <v>1.2057492251</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.4256377712</v>
+        <v>1.4140955985</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.0926875984</v>
+        <v>0.079687902</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.0542561552</v>
+        <v>0.0305652227</v>
       </c>
       <c r="AE9" t="n">
-        <v>138.6990786909</v>
+        <v>141.6130431673</v>
       </c>
       <c r="AF9" t="n">
-        <v>160.072612821</v>
+        <v>160.7239486521</v>
       </c>
       <c r="AG9" t="n">
-        <v>37.338407791</v>
+        <v>36.3442330045</v>
       </c>
       <c r="AH9" t="n">
-        <v>6.5774284787</v>
+        <v>6.7156160703</v>
       </c>
       <c r="AI9" t="n">
-        <v>14.046692508</v>
-      </c>
-      <c r="AJ9" t="inlineStr"/>
+        <v>14.5337633875</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>8.7050594851</v>
+      </c>
       <c r="AK9" t="n">
-        <v>1.7373025098</v>
+        <v>1.5422603536</v>
       </c>
       <c r="AL9" t="n">
-        <v>5.0268034109</v>
+        <v>4.8418801337</v>
       </c>
       <c r="AM9" t="n">
-        <v>19.4180910819</v>
+        <v>19.6084314965</v>
       </c>
       <c r="AN9" t="n">
-        <v>79.6549855486</v>
+        <v>78.752072614</v>
       </c>
       <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="n">
-        <v>2.2390907828</v>
+        <v>1.9251367035</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.0535240825</v>
+        <v>0.0430198146</v>
       </c>
       <c r="AR9" t="n">
-        <v>142.300463726</v>
+        <v>144.8132999198</v>
       </c>
       <c r="AS9" t="n">
-        <v>200.9650882705</v>
+        <v>201.5263215122</v>
       </c>
       <c r="AT9" t="n">
-        <v>48.1248406404</v>
+        <v>46.5108725591</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.4376172916</v>
+        <v>7.7048487956</v>
       </c>
       <c r="AV9" t="n">
-        <v>17.3819457784</v>
+        <v>18.0382082634</v>
       </c>
       <c r="AW9" t="n">
-        <v>7.6271817503</v>
+        <v>7.9995345256</v>
       </c>
       <c r="AX9" t="n">
-        <v>2.6048386796</v>
+        <v>2.5983968021</v>
       </c>
       <c r="AY9" t="n">
-        <v>1.7774455716</v>
+        <v>1.8283421207</v>
       </c>
       <c r="AZ9" t="n">
-        <v>139.5016002474</v>
+        <v>139.1088725034</v>
       </c>
       <c r="BA9" t="n">
-        <v>1.4027769944</v>
+        <v>1.3895400117</v>
       </c>
       <c r="BB9" t="n">
-        <v>2.9215228342</v>
+        <v>2.8844785692</v>
       </c>
       <c r="BC9" t="n">
-        <v>7.5020437898</v>
+        <v>7.8356131587</v>
       </c>
       <c r="BD9" t="n">
-        <v>2.715068432</v>
+        <v>2.7148467436</v>
       </c>
       <c r="BE9" t="n">
-        <v>2.2482394302</v>
+        <v>2.3426059959</v>
       </c>
       <c r="BF9" t="n">
-        <v>126.4077988702</v>
+        <v>126.5825949112</v>
       </c>
       <c r="BG9" t="n">
-        <v>1.3677072451</v>
+        <v>1.2990219642</v>
       </c>
       <c r="BH9" t="n">
-        <v>2.1838102459</v>
+        <v>2.1603062749</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.1610756015</v>
+        <v>5.96</v>
       </c>
       <c r="C10" t="n">
-        <v>1.4507564625</v>
+        <v>1.33</v>
       </c>
       <c r="D10" t="n">
-        <v>5.9984249522</v>
+        <v>6.42</v>
       </c>
       <c r="E10" t="n">
-        <v>20.5223638039</v>
+        <v>21.15</v>
       </c>
       <c r="F10" t="n">
-        <v>67.204191767</v>
+        <v>68.02</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>1.5948496552</v>
+        <v>1.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.5396718979</v>
+        <v>3.61</v>
       </c>
       <c r="J10" t="n">
-        <v>1.3564678782</v>
+        <v>1.22</v>
       </c>
       <c r="K10" t="n">
-        <v>7.1901663349</v>
+        <v>7.82</v>
       </c>
       <c r="L10" t="n">
-        <v>21.4641093671</v>
+        <v>21.85</v>
       </c>
       <c r="M10" t="n">
-        <v>55.3048798976</v>
+        <v>55.39</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>1.2545111423</v>
+        <v>1.05</v>
       </c>
       <c r="P10" t="n">
-        <v>0.161800907</v>
+        <v>0.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0177316063</v>
+        <v>0.03</v>
       </c>
       <c r="R10" t="n">
-        <v>138.3153945628</v>
+        <v>142.42</v>
       </c>
       <c r="S10" t="n">
-        <v>118.6798570903</v>
+        <v>120.01</v>
       </c>
       <c r="T10" t="n">
-        <v>25.8681970698</v>
+        <v>26.13</v>
       </c>
       <c r="U10" t="n">
-        <v>5.6962785082</v>
+        <v>5.83</v>
       </c>
       <c r="V10" t="n">
-        <v>10.9226694508</v>
+        <v>11.23</v>
       </c>
       <c r="W10" t="n">
-        <v>7.6667032529</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="X10" t="n">
-        <v>2.8348405494</v>
+        <v>3.12</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.8725202127</v>
+        <v>3.03</v>
       </c>
       <c r="Z10" t="n">
-        <v>113.6751112259</v>
+        <v>115.72</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.2057492251</v>
+        <v>1.44</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.4140955985</v>
+        <v>1.64</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.079687902</v>
+        <v>0.05</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.0305652227</v>
+        <v>0.04</v>
       </c>
       <c r="AE10" t="n">
-        <v>141.6130431673</v>
+        <v>146.34</v>
       </c>
       <c r="AF10" t="n">
-        <v>160.7239486521</v>
+        <v>163.18</v>
       </c>
       <c r="AG10" t="n">
-        <v>36.3442330045</v>
+        <v>35.63</v>
       </c>
       <c r="AH10" t="n">
-        <v>6.7156160703</v>
+        <v>6.84</v>
       </c>
       <c r="AI10" t="n">
-        <v>14.5337633875</v>
+        <v>14.54</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8.7050594851</v>
+        <v>8.23</v>
       </c>
       <c r="AK10" t="n">
-        <v>1.5422603536</v>
+        <v>1.45</v>
       </c>
       <c r="AL10" t="n">
-        <v>4.8418801337</v>
+        <v>5.07</v>
       </c>
       <c r="AM10" t="n">
-        <v>19.6084314965</v>
+        <v>20.47</v>
       </c>
       <c r="AN10" t="n">
-        <v>78.752072614</v>
+        <v>80.25</v>
       </c>
       <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="n">
-        <v>1.9251367035</v>
+        <v>1.54</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.0430198146</v>
+        <v>0.05</v>
       </c>
       <c r="AR10" t="n">
-        <v>144.8132999198</v>
+        <v>150.13</v>
       </c>
       <c r="AS10" t="n">
-        <v>201.5263215122</v>
+        <v>205</v>
       </c>
       <c r="AT10" t="n">
-        <v>46.5108725591</v>
+        <v>44.84</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.7048487956</v>
+        <v>7.81</v>
       </c>
       <c r="AV10" t="n">
-        <v>18.0382082634</v>
+        <v>17.74</v>
       </c>
       <c r="AW10" t="n">
-        <v>7.9995345256</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="AX10" t="n">
-        <v>2.5983968021</v>
+        <v>2.79</v>
       </c>
       <c r="AY10" t="n">
-        <v>1.8283421207</v>
+        <v>1.96</v>
       </c>
       <c r="AZ10" t="n">
-        <v>139.1088725034</v>
+        <v>141.63</v>
       </c>
       <c r="BA10" t="n">
-        <v>1.3895400117</v>
+        <v>1.42</v>
       </c>
       <c r="BB10" t="n">
-        <v>2.8844785692</v>
+        <v>3.45</v>
       </c>
       <c r="BC10" t="n">
-        <v>7.8356131587</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="BD10" t="n">
-        <v>2.7148467436</v>
+        <v>2.96</v>
       </c>
       <c r="BE10" t="n">
-        <v>2.3426059959</v>
+        <v>2.49</v>
       </c>
       <c r="BF10" t="n">
-        <v>126.5825949112</v>
+        <v>128.88</v>
       </c>
       <c r="BG10" t="n">
-        <v>1.2990219642</v>
+        <v>1.43</v>
       </c>
       <c r="BH10" t="n">
-        <v>2.1603062749</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5.96</v>
-      </c>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>1.33</v>
+        <v>1.171542974</v>
       </c>
       <c r="D11" t="n">
-        <v>6.42</v>
+        <v>6.446132115</v>
       </c>
       <c r="E11" t="n">
-        <v>21.15</v>
+        <v>21.4433638</v>
       </c>
       <c r="F11" t="n">
-        <v>68.02</v>
+        <v>65.01693097</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.61</v>
-      </c>
+        <v>1.135560624</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>1.22</v>
+        <v>1.064610709</v>
       </c>
       <c r="K11" t="n">
-        <v>7.82</v>
+        <v>7.692670928</v>
       </c>
       <c r="L11" t="n">
-        <v>21.85</v>
+        <v>21.81593396</v>
       </c>
       <c r="M11" t="n">
-        <v>55.39</v>
+        <v>51.99850611</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>1.05</v>
+        <v>0.9229488</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1</v>
+        <v>0.113758806</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.03</v>
+        <v>0.062245384</v>
       </c>
       <c r="R11" t="n">
-        <v>142.42</v>
+        <v>143.4198043</v>
       </c>
       <c r="S11" t="n">
-        <v>120.01</v>
+        <v>118.9509292</v>
       </c>
       <c r="T11" t="n">
-        <v>26.13</v>
+        <v>26.8513709</v>
       </c>
       <c r="U11" t="n">
-        <v>5.83</v>
+        <v>5.670769138</v>
       </c>
       <c r="V11" t="n">
-        <v>11.23</v>
+        <v>11.84379414</v>
       </c>
       <c r="W11" t="n">
-        <v>8.619999999999999</v>
+        <v>9.057776595</v>
       </c>
       <c r="X11" t="n">
-        <v>3.12</v>
+        <v>3.296858969</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.03</v>
+        <v>2.983485656</v>
       </c>
       <c r="Z11" t="n">
-        <v>115.72</v>
+        <v>115.6025568</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.44</v>
+        <v>1.330763386</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.64</v>
+        <v>1.923167732</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.05</v>
+        <v>0.056090133</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.04</v>
+        <v>0.065614873</v>
       </c>
       <c r="AE11" t="n">
-        <v>146.34</v>
+        <v>148.5086819</v>
       </c>
       <c r="AF11" t="n">
-        <v>163.18</v>
+        <v>161.563925</v>
       </c>
       <c r="AG11" t="n">
-        <v>35.63</v>
+        <v>36.06278082</v>
       </c>
       <c r="AH11" t="n">
-        <v>6.84</v>
+        <v>6.595353036</v>
       </c>
       <c r="AI11" t="n">
-        <v>14.54</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>8.23</v>
-      </c>
+        <v>14.85965212</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="n">
-        <v>1.45</v>
+        <v>1.275548229</v>
       </c>
       <c r="AL11" t="n">
-        <v>5.07</v>
+        <v>5.233714255</v>
       </c>
       <c r="AM11" t="n">
-        <v>20.47</v>
+        <v>21.08099184</v>
       </c>
       <c r="AN11" t="n">
-        <v>80.25</v>
+        <v>77.67900827</v>
       </c>
       <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="n">
-        <v>1.54</v>
+        <v>1.342352719</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.05</v>
+        <v>0.06889213</v>
       </c>
       <c r="AR11" t="n">
-        <v>150.13</v>
+        <v>153.4582639</v>
       </c>
       <c r="AS11" t="n">
-        <v>205</v>
+        <v>203.0104942</v>
       </c>
       <c r="AT11" t="n">
-        <v>44.84</v>
+        <v>45.02205091</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.81</v>
+        <v>7.49462871</v>
       </c>
       <c r="AV11" t="n">
-        <v>17.74</v>
+        <v>17.79295836</v>
       </c>
       <c r="AW11" t="n">
-        <v>8.630000000000001</v>
+        <v>9.210669044999999</v>
       </c>
       <c r="AX11" t="n">
-        <v>2.79</v>
+        <v>2.912258231</v>
       </c>
       <c r="AY11" t="n">
-        <v>1.96</v>
+        <v>1.874700998</v>
       </c>
       <c r="AZ11" t="n">
-        <v>141.63</v>
+        <v>142.8447005</v>
       </c>
       <c r="BA11" t="n">
-        <v>1.42</v>
+        <v>1.365316762</v>
       </c>
       <c r="BB11" t="n">
-        <v>3.45</v>
+        <v>4.141878374</v>
       </c>
       <c r="BC11" t="n">
-        <v>8.619999999999999</v>
+        <v>9.135283601999999</v>
       </c>
       <c r="BD11" t="n">
-        <v>2.96</v>
+        <v>3.101890204</v>
       </c>
       <c r="BE11" t="n">
-        <v>2.49</v>
+        <v>2.421400473</v>
       </c>
       <c r="BF11" t="n">
-        <v>128.88</v>
+        <v>129.4126373</v>
       </c>
       <c r="BG11" t="n">
-        <v>1.43</v>
+        <v>1.348279809</v>
       </c>
       <c r="BH11" t="n">
-        <v>2.56</v>
+        <v>3.047916679</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>1.171542974</v>
+        <v>0.99</v>
       </c>
       <c r="D12" t="n">
-        <v>6.446132115</v>
+        <v>19.19</v>
       </c>
       <c r="E12" t="n">
-        <v>21.4433638</v>
+        <v>22.79</v>
       </c>
       <c r="F12" t="n">
-        <v>65.01693097</v>
+        <v>55.36</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>1.135560624</v>
+        <v>1.01</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>1.064610709</v>
+        <v>0.93</v>
       </c>
       <c r="K12" t="n">
-        <v>7.692670928</v>
+        <v>19.02</v>
       </c>
       <c r="L12" t="n">
-        <v>21.81593396</v>
+        <v>23.19</v>
       </c>
       <c r="M12" t="n">
-        <v>51.99850611</v>
+        <v>43.2</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>0.9229488</v>
+        <v>0.91</v>
       </c>
       <c r="P12" t="n">
-        <v>0.113758806</v>
+        <v>0.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.062245384</v>
+        <v>0.05</v>
       </c>
       <c r="R12" t="n">
-        <v>143.4198043</v>
+        <v>152.52</v>
       </c>
       <c r="S12" t="n">
-        <v>118.9509292</v>
+        <v>119.53</v>
       </c>
       <c r="T12" t="n">
-        <v>26.8513709</v>
+        <v>27.51</v>
       </c>
       <c r="U12" t="n">
-        <v>5.670769138</v>
+        <v>5.55</v>
       </c>
       <c r="V12" t="n">
-        <v>11.84379414</v>
+        <v>12.36</v>
       </c>
       <c r="W12" t="n">
-        <v>9.057776595</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="X12" t="n">
-        <v>3.296858969</v>
+        <v>3.33</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.983485656</v>
+        <v>2.76</v>
       </c>
       <c r="Z12" t="n">
-        <v>115.6025568</v>
+        <v>120.02</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.330763386</v>
+        <v>1.31</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.923167732</v>
+        <v>2.09</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.056090133</v>
+        <v>0.05</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.065614873</v>
+        <v>0.06</v>
       </c>
       <c r="AE12" t="n">
-        <v>148.5086819</v>
+        <v>155.86</v>
       </c>
       <c r="AF12" t="n">
-        <v>161.563925</v>
+        <v>161.4</v>
       </c>
       <c r="AG12" t="n">
-        <v>36.06278082</v>
+        <v>35.87</v>
       </c>
       <c r="AH12" t="n">
-        <v>6.595353036</v>
+        <v>6.64</v>
       </c>
       <c r="AI12" t="n">
-        <v>14.85965212</v>
+        <v>15.82</v>
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="n">
-        <v>1.275548229</v>
+        <v>1.04</v>
       </c>
       <c r="AL12" t="n">
-        <v>5.233714255</v>
+        <v>19.35</v>
       </c>
       <c r="AM12" t="n">
-        <v>21.08099184</v>
+        <v>22.41</v>
       </c>
       <c r="AN12" t="n">
-        <v>77.67900827</v>
+        <v>67.15000000000001</v>
       </c>
       <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="n">
-        <v>1.342352719</v>
+        <v>1.1</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.06889213</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AR12" t="n">
-        <v>153.4582639</v>
+        <v>159.09</v>
       </c>
       <c r="AS12" t="n">
-        <v>203.0104942</v>
+        <v>202</v>
       </c>
       <c r="AT12" t="n">
-        <v>45.02205091</v>
+        <v>43.98</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.49462871</v>
+        <v>7.7</v>
       </c>
       <c r="AV12" t="n">
-        <v>17.79295836</v>
+        <v>19.18</v>
       </c>
       <c r="AW12" t="n">
-        <v>9.210669044999999</v>
+        <v>8.91</v>
       </c>
       <c r="AX12" t="n">
-        <v>2.912258231</v>
+        <v>2.98</v>
       </c>
       <c r="AY12" t="n">
-        <v>1.874700998</v>
+        <v>1.62</v>
       </c>
       <c r="AZ12" t="n">
-        <v>142.8447005</v>
+        <v>149.87</v>
       </c>
       <c r="BA12" t="n">
-        <v>1.365316762</v>
+        <v>1.4</v>
       </c>
       <c r="BB12" t="n">
-        <v>4.141878374</v>
+        <v>4.32</v>
       </c>
       <c r="BC12" t="n">
-        <v>9.135283601999999</v>
+        <v>9.06</v>
       </c>
       <c r="BD12" t="n">
-        <v>3.101890204</v>
+        <v>3.15</v>
       </c>
       <c r="BE12" t="n">
-        <v>2.421400473</v>
+        <v>2.18</v>
       </c>
       <c r="BF12" t="n">
-        <v>129.4126373</v>
+        <v>135.18</v>
       </c>
       <c r="BG12" t="n">
-        <v>1.348279809</v>
+        <v>1.36</v>
       </c>
       <c r="BH12" t="n">
-        <v>3.047916679</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5.3</v>
+      </c>
       <c r="C13" t="n">
-        <v>0.99</v>
+        <v>0.87</v>
       </c>
       <c r="D13" t="n">
-        <v>19.19</v>
+        <v>5.57</v>
       </c>
       <c r="E13" t="n">
-        <v>22.79</v>
+        <v>24.15</v>
       </c>
       <c r="F13" t="n">
-        <v>55.36</v>
+        <v>54.49</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.21</v>
+      </c>
       <c r="J13" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="K13" t="n">
-        <v>19.02</v>
+        <v>6.6</v>
       </c>
       <c r="L13" t="n">
-        <v>23.19</v>
+        <v>23.99</v>
       </c>
       <c r="M13" t="n">
-        <v>43.2</v>
+        <v>41.51</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>0.91</v>
+        <v>0.58</v>
       </c>
       <c r="P13" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="R13" t="n">
-        <v>152.52</v>
+        <v>159.4</v>
       </c>
       <c r="S13" t="n">
-        <v>119.53</v>
+        <v>116.76</v>
       </c>
       <c r="T13" t="n">
-        <v>27.51</v>
+        <v>27.41</v>
       </c>
       <c r="U13" t="n">
-        <v>5.55</v>
+        <v>5.56</v>
       </c>
       <c r="V13" t="n">
-        <v>12.36</v>
+        <v>12.01</v>
       </c>
       <c r="W13" t="n">
-        <v>9.210000000000001</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="X13" t="n">
-        <v>3.33</v>
+        <v>3.84</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.76</v>
+        <v>2.43</v>
       </c>
       <c r="Z13" t="n">
-        <v>120.02</v>
+        <v>124.52</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="AB13" t="n">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AE13" t="n">
-        <v>155.86</v>
+        <v>165.37</v>
       </c>
       <c r="AF13" t="n">
-        <v>161.4</v>
+        <v>158.7</v>
       </c>
       <c r="AG13" t="n">
-        <v>35.87</v>
+        <v>35.22</v>
       </c>
       <c r="AH13" t="n">
-        <v>6.64</v>
+        <v>6.75</v>
       </c>
       <c r="AI13" t="n">
-        <v>15.82</v>
-      </c>
-      <c r="AJ13" t="inlineStr"/>
+        <v>15.41</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>7.36</v>
+      </c>
       <c r="AK13" t="n">
-        <v>1.04</v>
+        <v>0.86</v>
       </c>
       <c r="AL13" t="n">
-        <v>19.35</v>
+        <v>4.56</v>
       </c>
       <c r="AM13" t="n">
-        <v>22.41</v>
+        <v>24.31</v>
       </c>
       <c r="AN13" t="n">
-        <v>67.15000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="n">
-        <v>1.1</v>
+        <v>0.79</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AR13" t="n">
-        <v>159.09</v>
+        <v>171.26</v>
       </c>
       <c r="AS13" t="n">
-        <v>202</v>
+        <v>200.1</v>
       </c>
       <c r="AT13" t="n">
-        <v>43.98</v>
+        <v>42.93</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.7</v>
+        <v>7.94</v>
       </c>
       <c r="AV13" t="n">
-        <v>19.18</v>
+        <v>18.76</v>
       </c>
       <c r="AW13" t="n">
-        <v>8.91</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="AX13" t="n">
-        <v>2.98</v>
+        <v>3.07</v>
       </c>
       <c r="AY13" t="n">
-        <v>1.62</v>
+        <v>1.48</v>
       </c>
       <c r="AZ13" t="n">
-        <v>149.87</v>
+        <v>155.32</v>
       </c>
       <c r="BA13" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="BB13" t="n">
         <v>4.32</v>
       </c>
       <c r="BC13" t="n">
-        <v>9.06</v>
+        <v>9.44</v>
       </c>
       <c r="BD13" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="BE13" t="n">
-        <v>2.18</v>
+        <v>1.95</v>
       </c>
       <c r="BF13" t="n">
-        <v>135.18</v>
+        <v>140.02</v>
       </c>
       <c r="BG13" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="BH13" t="n">
-        <v>3.22</v>
+        <v>3.19</v>
       </c>
     </row>
   </sheetData>
